--- a/data/countries/sint_maarten.xlsx
+++ b/data/countries/sint_maarten.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10711"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/BlenmanSandbox-CC1407-MEDCCC/AP 2023 Spr/data/countries/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andreipascu/Documents/Yale University/Years/Senior/Spring/CSEC 491/local/data/countries/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C1918E8-8E2F-6A44-B34D-F68DA43A58CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2145365B-F2D8-B141-BDAB-C9A621182D90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32860" yWindow="800" windowWidth="17880" windowHeight="26400" activeTab="1" xr2:uid="{A00892F2-77B1-0143-89C4-5296CC556B66}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16560" activeTab="1" xr2:uid="{A00892F2-77B1-0143-89C4-5296CC556B66}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -21,12 +21,20 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="32">
   <si>
     <t>General</t>
   </si>
@@ -97,9 +105,6 @@
     <t>Half-complete</t>
   </si>
   <si>
-    <t>2020-2021 (yearly)</t>
-  </si>
-  <si>
     <t>Sint Maarten</t>
   </si>
   <si>
@@ -122,6 +127,9 @@
   </si>
   <si>
     <t>NA</t>
+  </si>
+  <si>
+    <t>2020-2022 (yearly)</t>
   </si>
 </sst>
 </file>
@@ -220,7 +228,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -248,6 +256,9 @@
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -567,7 +578,7 @@
   <dimension ref="B1:E22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -586,7 +597,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E2" s="2"/>
     </row>
@@ -604,7 +615,7 @@
         <v>3</v>
       </c>
       <c r="D4" s="4">
-        <v>45032</v>
+        <v>45033</v>
       </c>
       <c r="E4" s="2"/>
     </row>
@@ -635,7 +646,7 @@
         <v>8</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.2">
@@ -670,7 +681,7 @@
         <v>6</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.2">
@@ -678,7 +689,7 @@
         <v>7</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.2">
@@ -686,7 +697,7 @@
         <v>8</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.2">
@@ -694,7 +705,7 @@
         <v>9</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.2">
@@ -702,7 +713,7 @@
         <v>11</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.2">
@@ -710,7 +721,7 @@
         <v>13</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17" spans="3:5" x14ac:dyDescent="0.2">
@@ -745,7 +756,7 @@
   <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -758,7 +769,7 @@
         <v>16</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C1" s="11" t="s">
         <v>17</v>
@@ -775,7 +786,7 @@
         <v>2010</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C2" s="13">
         <v>0</v>
@@ -792,7 +803,7 @@
         <v>2011</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C3" s="13">
         <v>0</v>
@@ -974,6 +985,24 @@
       <c r="E13">
         <f>D13/C13</f>
         <v>1.2830793905372895E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="11">
+        <v>2022</v>
+      </c>
+      <c r="B14" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14">
+        <v>5791</v>
+      </c>
+      <c r="D14">
+        <v>14</v>
+      </c>
+      <c r="E14">
+        <f>D14/C14</f>
+        <v>2.4175444655499916E-3</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
